--- a/second-order/1879/August1879.xlsx
+++ b/second-order/1879/August1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1879/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17625" documentId="13_ncr:1_{39CFE3A4-A435-4BDB-AEFA-CBF9792E5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{864E6CA1-1906-4C5C-8579-770BCBB5410E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A2C87-C81C-CD45-99B0-2110EC16E9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="832" activeTab="6" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +409,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -846,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,7 +887,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -992,7 +993,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,7 +1135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1144,16 +1145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
   <dimension ref="A2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1190,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3329,7 +3330,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K37" s="37" t="s">
         <v>34</v>
       </c>
@@ -3359,12 +3360,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3401,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>56</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5559,23 +5560,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -5612,7 +5613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>70</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>70</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>70</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7751,7 +7752,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -7790,12 +7791,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -7832,7 +7833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -8677,7 +8678,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -9782,7 +9783,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9992,12 +9993,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10034,7 +10035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -10099,7 +10100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -11724,7 +11725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -11789,7 +11790,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>74</v>
       </c>
@@ -12114,7 +12115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -12194,12 +12195,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -12236,7 +12237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12301,7 +12302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
@@ -12431,7 +12432,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -12561,7 +12562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>75</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>75</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -13276,7 +13277,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -13341,7 +13342,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -13406,7 +13407,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -13536,7 +13537,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -13731,7 +13732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
@@ -13861,7 +13862,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
@@ -13991,7 +13992,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>75</v>
       </c>
@@ -14186,7 +14187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
@@ -14251,7 +14252,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14375,7 +14376,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L36" t="s">
         <v>76</v>
       </c>
@@ -14400,22 +14401,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -14452,7 +14453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -14582,7 +14583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -14647,7 +14648,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -14712,7 +14713,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -14972,7 +14973,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -15102,7 +15103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -15297,7 +15298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -15557,7 +15558,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -15752,7 +15753,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -15817,7 +15818,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -15882,7 +15883,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -16142,7 +16143,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -16337,7 +16338,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
@@ -16532,7 +16533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16591,7 +16592,7 @@
         <v>9.23</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -16631,12 +16632,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -16673,7 +16674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -16803,7 +16804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -16998,7 +16999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -17258,7 +17259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
@@ -17323,7 +17324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -17388,7 +17389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
@@ -17518,7 +17519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -17583,7 +17584,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>78</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
@@ -17778,7 +17779,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -17843,7 +17844,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -17908,7 +17909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>78</v>
       </c>
@@ -17973,7 +17974,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -18038,7 +18039,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -18103,7 +18104,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -18233,7 +18234,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>78</v>
       </c>
@@ -18363,7 +18364,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
@@ -18428,7 +18429,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -18623,7 +18624,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>78</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>78</v>
       </c>
@@ -18753,7 +18754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18831,23 +18832,23 @@
   <dimension ref="A2:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -18884,7 +18885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18949,7 +18950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -19014,7 +19015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -19209,7 +19210,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -19404,7 +19405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -19469,7 +19470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -19534,7 +19535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -19599,7 +19600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -19664,7 +19665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -19729,7 +19730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -19794,7 +19795,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -19924,7 +19925,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -19989,7 +19990,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -20119,7 +20120,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -20249,7 +20250,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -20314,7 +20315,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -20379,7 +20380,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -20509,7 +20510,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -20574,7 +20575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -20704,7 +20705,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -20769,7 +20770,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -20834,7 +20835,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -20899,7 +20900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -20964,7 +20965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -21023,7 +21024,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -21063,12 +21064,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -21105,7 +21106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -21170,7 +21171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -21235,7 +21236,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -21300,7 +21301,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -21430,7 +21431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -21495,7 +21496,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -21560,7 +21561,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -21625,7 +21626,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -21755,7 +21756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -21820,7 +21821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
@@ -21885,7 +21886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -22015,7 +22016,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -22145,7 +22146,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -22210,7 +22211,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -22275,7 +22276,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -22340,7 +22341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -22405,7 +22406,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -22535,7 +22536,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -22665,7 +22666,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -22730,7 +22731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
@@ -22795,7 +22796,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -22860,7 +22861,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -22925,7 +22926,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -23055,7 +23056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -23120,7 +23121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>84</v>
       </c>
@@ -23185,7 +23186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -23265,12 +23266,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -23307,7 +23308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23372,7 +23373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
@@ -23437,7 +23438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -23502,7 +23503,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -23567,7 +23568,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
@@ -23632,7 +23633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -23697,7 +23698,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -23762,7 +23763,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>85</v>
       </c>
@@ -23827,7 +23828,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>85</v>
       </c>
@@ -23892,7 +23893,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>85</v>
       </c>
@@ -23957,7 +23958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -24022,7 +24023,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -24087,7 +24088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -24152,7 +24153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -24217,7 +24218,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
@@ -24282,7 +24283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>85</v>
       </c>
@@ -24347,7 +24348,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
@@ -24412,7 +24413,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
@@ -24477,7 +24478,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -24542,7 +24543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -24607,7 +24608,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>85</v>
       </c>
@@ -24672,7 +24673,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
@@ -24737,7 +24738,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
@@ -24802,7 +24803,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -24867,7 +24868,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -24997,7 +24998,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -25062,7 +25063,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -25127,7 +25128,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
@@ -25192,7 +25193,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
@@ -25257,7 +25258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
@@ -25322,7 +25323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
@@ -25387,7 +25388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -25467,12 +25468,12 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -25509,7 +25510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25574,7 +25575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -25639,7 +25640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -25704,7 +25705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -25769,7 +25770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -25834,7 +25835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -25899,7 +25900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -25964,7 +25965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -26029,7 +26030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -26094,7 +26095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -26159,7 +26160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -26224,7 +26225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -26289,7 +26290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -26354,7 +26355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -26419,7 +26420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -26484,7 +26485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -26549,7 +26550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -26614,7 +26615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -26679,7 +26680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -26744,7 +26745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -26809,7 +26810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -26874,7 +26875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -26939,7 +26940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -27004,7 +27005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -27069,7 +27070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
@@ -27134,7 +27135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -27199,7 +27200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -27264,7 +27265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
@@ -27329,7 +27330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -27394,7 +27395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -27459,7 +27460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -27524,7 +27525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -27589,7 +27590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27648,7 +27649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J37" t="s">
         <v>36</v>
       </c>
@@ -27674,12 +27675,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -27716,7 +27717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27781,7 +27782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -27846,7 +27847,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -27911,7 +27912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -27976,7 +27977,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -28041,7 +28042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
@@ -28106,7 +28107,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>86</v>
       </c>
@@ -28171,7 +28172,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>86</v>
       </c>
@@ -28236,7 +28237,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>86</v>
       </c>
@@ -28301,7 +28302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -28366,7 +28367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -28431,7 +28432,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -28496,7 +28497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -28561,7 +28562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>86</v>
       </c>
@@ -28626,7 +28627,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -28691,7 +28692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -28756,7 +28757,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
@@ -28821,7 +28822,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>86</v>
       </c>
@@ -28886,7 +28887,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -28951,7 +28952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -29016,7 +29017,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -29081,7 +29082,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
@@ -29146,7 +29147,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>86</v>
       </c>
@@ -29211,7 +29212,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -29276,7 +29277,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
@@ -29341,7 +29342,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -29406,7 +29407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>86</v>
       </c>
@@ -29471,7 +29472,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -29536,7 +29537,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>86</v>
       </c>
@@ -29601,7 +29602,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
@@ -29666,7 +29667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
@@ -29731,7 +29732,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>86</v>
       </c>
@@ -29796,7 +29797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -29875,22 +29876,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -29927,7 +29928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29992,7 +29993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -30057,7 +30058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -30122,7 +30123,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>92</v>
       </c>
@@ -30187,7 +30188,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>92</v>
       </c>
@@ -30252,7 +30253,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
@@ -30317,7 +30318,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -30382,7 +30383,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>92</v>
       </c>
@@ -30447,7 +30448,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -30512,7 +30513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
@@ -30577,7 +30578,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>92</v>
       </c>
@@ -30642,7 +30643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
@@ -30707,7 +30708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -30772,7 +30773,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
@@ -30837,7 +30838,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -30902,7 +30903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>92</v>
       </c>
@@ -30967,7 +30968,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -31032,7 +31033,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -31097,7 +31098,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -31162,7 +31163,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
@@ -31227,7 +31228,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -31292,7 +31293,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -31357,7 +31358,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
@@ -31422,7 +31423,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -31487,7 +31488,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>92</v>
       </c>
@@ -31552,7 +31553,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -31617,7 +31618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -31682,7 +31683,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -31747,7 +31748,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>92</v>
       </c>
@@ -31812,7 +31813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -31877,7 +31878,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -31942,7 +31943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>92</v>
       </c>
@@ -32007,7 +32008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -32066,7 +32067,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>93</v>
       </c>
@@ -32107,12 +32108,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -32149,7 +32150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -32214,7 +32215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>94</v>
       </c>
@@ -32279,7 +32280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -32344,7 +32345,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -32409,7 +32410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -32474,7 +32475,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
@@ -32539,7 +32540,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
@@ -32604,7 +32605,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
@@ -32669,7 +32670,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -32734,7 +32735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -32799,7 +32800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
@@ -32864,7 +32865,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
@@ -32929,7 +32930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -32994,7 +32995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -33059,7 +33060,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -33124,7 +33125,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -33189,7 +33190,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -33254,7 +33255,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>94</v>
       </c>
@@ -33319,7 +33320,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>94</v>
       </c>
@@ -33384,7 +33385,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -33449,7 +33450,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -33514,7 +33515,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -33579,7 +33580,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -33644,7 +33645,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>94</v>
       </c>
@@ -33709,7 +33710,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>94</v>
       </c>
@@ -33774,7 +33775,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -33839,7 +33840,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
@@ -33904,7 +33905,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -33969,7 +33970,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -34034,7 +34035,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
@@ -34099,7 +34100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
@@ -34164,7 +34165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -34229,7 +34230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -34288,10 +34289,10 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
     </row>
   </sheetData>
@@ -34315,12 +34316,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -34357,7 +34358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -34422,7 +34423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
@@ -34487,7 +34488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>95</v>
       </c>
@@ -34552,7 +34553,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>95</v>
       </c>
@@ -34617,7 +34618,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -34682,7 +34683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -34747,7 +34748,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
@@ -34812,7 +34813,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
@@ -34877,7 +34878,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
@@ -34942,7 +34943,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -35007,7 +35008,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>95</v>
       </c>
@@ -35072,7 +35073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
@@ -35137,7 +35138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
@@ -35202,7 +35203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
@@ -35267,7 +35268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
@@ -35332,7 +35333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
@@ -35397,7 +35398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
@@ -35462,7 +35463,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -35527,7 +35528,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -35592,7 +35593,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
@@ -35657,7 +35658,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
@@ -35722,7 +35723,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>95</v>
       </c>
@@ -35787,7 +35788,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -35852,7 +35853,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>95</v>
       </c>
@@ -35917,7 +35918,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>95</v>
       </c>
@@ -35982,7 +35983,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
@@ -36047,7 +36048,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -36112,7 +36113,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>95</v>
       </c>
@@ -36177,7 +36178,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -36242,7 +36243,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
@@ -36307,7 +36308,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
@@ -36372,7 +36373,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -36437,7 +36438,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -36514,23 +36515,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="AB36" sqref="AB36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -36567,7 +36568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -36632,7 +36633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -36697,7 +36698,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -36762,7 +36763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
@@ -36827,7 +36828,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>98</v>
       </c>
@@ -36892,7 +36893,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -36957,7 +36958,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -37022,7 +37023,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>98</v>
       </c>
@@ -37087,7 +37088,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>98</v>
       </c>
@@ -37152,7 +37153,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
@@ -37217,7 +37218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -37282,7 +37283,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
@@ -37347,7 +37348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -37412,7 +37413,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>98</v>
       </c>
@@ -37477,7 +37478,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>98</v>
       </c>
@@ -37542,7 +37543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
@@ -37607,7 +37608,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
@@ -37672,7 +37673,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -37737,7 +37738,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>98</v>
       </c>
@@ -37802,7 +37803,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
@@ -37867,7 +37868,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>98</v>
       </c>
@@ -37932,7 +37933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -37997,7 +37998,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -38062,7 +38063,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
@@ -38127,7 +38128,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -38192,7 +38193,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
@@ -38257,7 +38258,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>98</v>
       </c>
@@ -38322,7 +38323,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
@@ -38387,7 +38388,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -38452,7 +38453,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -38517,7 +38518,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
@@ -38582,7 +38583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -38647,7 +38648,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -38706,7 +38707,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -38743,23 +38744,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -38796,7 +38797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -38861,7 +38862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
@@ -38926,7 +38927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
@@ -38991,7 +38992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
@@ -39056,7 +39057,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>99</v>
       </c>
@@ -39121,7 +39122,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>99</v>
       </c>
@@ -39186,7 +39187,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>99</v>
       </c>
@@ -39251,7 +39252,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>99</v>
       </c>
@@ -39316,7 +39317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>99</v>
       </c>
@@ -39381,7 +39382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>99</v>
       </c>
@@ -39446,7 +39447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>99</v>
       </c>
@@ -39511,7 +39512,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -39576,7 +39577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
@@ -39641,7 +39642,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
@@ -39706,7 +39707,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -39771,7 +39772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
@@ -39836,7 +39837,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>99</v>
       </c>
@@ -39901,7 +39902,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
@@ -39966,7 +39967,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
@@ -40031,7 +40032,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>99</v>
       </c>
@@ -40096,7 +40097,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
@@ -40161,7 +40162,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
@@ -40226,7 +40227,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -40291,7 +40292,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
@@ -40356,7 +40357,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
@@ -40421,7 +40422,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>99</v>
       </c>
@@ -40486,7 +40487,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>99</v>
       </c>
@@ -40551,7 +40552,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -40616,7 +40617,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -40681,7 +40682,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>99</v>
       </c>
@@ -40746,7 +40747,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -40811,7 +40812,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>99</v>
       </c>
@@ -40876,7 +40877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -40935,7 +40936,7 @@
         <v>4.4089999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -40974,9 +40975,9 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -41013,7 +41014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -41078,7 +41079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
@@ -41143,7 +41144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>100</v>
       </c>
@@ -41208,7 +41209,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -41273,7 +41274,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>100</v>
       </c>
@@ -41338,7 +41339,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>100</v>
       </c>
@@ -41403,7 +41404,7 @@
         <v>1.615</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -41468,7 +41469,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>100</v>
       </c>
@@ -41533,7 +41534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>100</v>
       </c>
@@ -41598,7 +41599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
@@ -41663,7 +41664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>100</v>
       </c>
@@ -41728,7 +41729,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>100</v>
       </c>
@@ -41793,7 +41794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -41858,7 +41859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
@@ -41923,7 +41924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>100</v>
       </c>
@@ -41988,7 +41989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>100</v>
       </c>
@@ -42053,7 +42054,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>100</v>
       </c>
@@ -42118,7 +42119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>100</v>
       </c>
@@ -42183,7 +42184,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -42248,7 +42249,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
@@ -42313,7 +42314,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -42378,7 +42379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>100</v>
       </c>
@@ -42443,7 +42444,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -42508,7 +42509,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
@@ -42573,7 +42574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -42638,7 +42639,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -42703,7 +42704,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
@@ -42768,7 +42769,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>100</v>
       </c>
@@ -42833,7 +42834,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
@@ -42898,7 +42899,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>100</v>
       </c>
@@ -42963,7 +42964,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>100</v>
       </c>
@@ -43028,7 +43029,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>100</v>
       </c>
@@ -43093,7 +43094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -43171,23 +43172,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="M28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -43224,7 +43225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43289,7 +43290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>102</v>
       </c>
@@ -43354,7 +43355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>102</v>
       </c>
@@ -43419,7 +43420,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -43484,7 +43485,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>102</v>
       </c>
@@ -43549,7 +43550,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -43614,7 +43615,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>102</v>
       </c>
@@ -43679,7 +43680,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>102</v>
       </c>
@@ -43744,7 +43745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>102</v>
       </c>
@@ -43809,7 +43810,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
@@ -43874,7 +43875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>102</v>
       </c>
@@ -43939,7 +43940,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -44004,7 +44005,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>102</v>
       </c>
@@ -44069,7 +44070,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>102</v>
       </c>
@@ -44134,7 +44135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>102</v>
       </c>
@@ -44199,7 +44200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
@@ -44264,7 +44265,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
@@ -44329,7 +44330,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>102</v>
       </c>
@@ -44394,7 +44395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -44459,7 +44460,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
@@ -44524,7 +44525,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>102</v>
       </c>
@@ -44589,7 +44590,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>102</v>
       </c>
@@ -44654,7 +44655,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
@@ -44719,7 +44720,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -44784,7 +44785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
@@ -44849,7 +44850,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -44914,7 +44915,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
@@ -44979,7 +44980,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>102</v>
       </c>
@@ -45044,7 +45045,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>102</v>
       </c>
@@ -45109,7 +45110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>102</v>
       </c>
@@ -45174,7 +45175,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>102</v>
       </c>
@@ -45239,7 +45240,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>102</v>
       </c>
@@ -45304,7 +45305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -45363,7 +45364,7 @@
         <v>4.5380000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -45400,22 +45401,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -45452,7 +45453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45517,7 +45518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -45582,7 +45583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -45647,7 +45648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -45712,7 +45713,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -45777,7 +45778,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -45842,7 +45843,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -45907,7 +45908,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -45972,7 +45973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -46037,7 +46038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -46102,7 +46103,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -46167,7 +46168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -46232,7 +46233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -46297,7 +46298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -46362,7 +46363,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -46427,7 +46428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -46492,7 +46493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -46557,7 +46558,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -46622,7 +46623,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -46687,7 +46688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -46752,7 +46753,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -46817,7 +46818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -46882,7 +46883,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -46947,7 +46948,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -47012,7 +47013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -47077,7 +47078,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -47142,7 +47143,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -47207,7 +47208,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -47272,7 +47273,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -47337,7 +47338,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -47402,7 +47403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -47467,7 +47468,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -47532,7 +47533,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -47591,7 +47592,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -47628,23 +47629,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="D29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -47681,7 +47682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -47746,7 +47747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -47811,7 +47812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -47876,7 +47877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -47941,7 +47942,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -48006,7 +48007,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -48071,7 +48072,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -48136,7 +48137,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -48201,7 +48202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
@@ -48266,7 +48267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
@@ -48331,7 +48332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -48396,7 +48397,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -48461,7 +48462,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -48526,7 +48527,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -48591,7 +48592,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -48656,7 +48657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -48721,7 +48722,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -48786,7 +48787,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -48851,7 +48852,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -48916,7 +48917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -48981,7 +48982,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -49046,7 +49047,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -49111,7 +49112,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -49176,7 +49177,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -49241,7 +49242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -49306,7 +49307,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -49371,7 +49372,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -49436,7 +49437,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -49501,7 +49502,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -49566,7 +49567,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -49631,7 +49632,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -49696,7 +49697,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
@@ -49761,7 +49762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -49820,7 +49821,7 @@
         <v>6.524</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -49860,12 +49861,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -49902,7 +49903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -49967,7 +49968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -50032,7 +50033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -50097,7 +50098,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -50162,7 +50163,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -50227,7 +50228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -50292,7 +50293,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -50357,7 +50358,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -50422,7 +50423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -50487,7 +50488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -50552,7 +50553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -50617,7 +50618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -50682,7 +50683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -50747,7 +50748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -50812,7 +50813,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -50877,7 +50878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -50942,7 +50943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -51007,7 +51008,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -51072,7 +51073,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -51137,7 +51138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -51202,7 +51203,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -51267,7 +51268,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -51332,7 +51333,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -51397,7 +51398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -51462,7 +51463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -51527,7 +51528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -51592,7 +51593,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -51657,7 +51658,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -51722,7 +51723,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -51787,7 +51788,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -51852,7 +51853,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -51917,7 +51918,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -51982,7 +51983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -52060,23 +52061,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -52113,7 +52114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -52178,7 +52179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -52243,7 +52244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -52308,7 +52309,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -52373,7 +52374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -52438,7 +52439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -52503,7 +52504,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -52568,7 +52569,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -52633,7 +52634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -52698,7 +52699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -52763,7 +52764,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -52828,7 +52829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -52893,7 +52894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -52958,7 +52959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -53023,7 +53024,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -53088,7 +53089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -53153,7 +53154,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -53218,7 +53219,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -53283,7 +53284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -53348,7 +53349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -53413,7 +53414,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -53478,7 +53479,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -53543,7 +53544,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -53608,7 +53609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -53673,7 +53674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -53738,7 +53739,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -53803,7 +53804,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -53868,7 +53869,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -53933,7 +53934,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -53998,7 +53999,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -54063,7 +54064,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -54128,7 +54129,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
@@ -54193,7 +54194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -54252,7 +54253,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -54288,24 +54289,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C7290-F441-421E-ACDE-BDA0F2227C67}">
   <dimension ref="A2:XFD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C5" sqref="C5:C34"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -54342,7 +54343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -54407,7 +54408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
@@ -54421,7 +54422,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>30.873000000000001</v>
+        <v>29.873000000000001</v>
       </c>
       <c r="F4" s="6">
         <v>30.097999999999999</v>
@@ -54472,7 +54473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -54537,7 +54538,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -54602,7 +54603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -54667,7 +54668,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -54732,7 +54733,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -54797,7 +54798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -54862,7 +54863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -54927,7 +54928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -54992,7 +54993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
@@ -55057,7 +55058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -55122,7 +55123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -55187,7 +55188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -55252,7 +55253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
@@ -55317,7 +55318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
@@ -55382,7 +55383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -55447,7 +55448,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -55512,7 +55513,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
@@ -55577,7 +55578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -55642,7 +55643,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -55707,7 +55708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -55772,7 +55773,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
@@ -55837,7 +55838,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -55902,7 +55903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -55967,7 +55968,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
@@ -56032,7 +56033,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>52</v>
       </c>
@@ -56097,7 +56098,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
@@ -56162,7 +56163,7 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
@@ -56227,7 +56228,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
@@ -56292,7 +56293,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
@@ -56357,7 +56358,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -56422,7 +56423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -56481,7 +56482,7 @@
         <v>6.8449999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>53</v>
       </c>
@@ -56521,23 +56522,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="J30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -56574,7 +56575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -56639,7 +56640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -56704,7 +56705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -56769,7 +56770,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -56834,7 +56835,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -56899,7 +56900,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -56964,7 +56965,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -57029,7 +57030,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>54</v>
       </c>
@@ -57094,7 +57095,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -57159,7 +57160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -57224,7 +57225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -57289,7 +57290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -57354,7 +57355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -57419,7 +57420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -57484,7 +57485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -57549,7 +57550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -57614,7 +57615,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -57679,7 +57680,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -57744,7 +57745,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -57809,7 +57810,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -57874,7 +57875,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
@@ -57939,7 +57940,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -58004,7 +58005,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
@@ -58069,7 +58070,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -58134,7 +58135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -58199,7 +58200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -58264,7 +58265,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -58329,7 +58330,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
@@ -58394,7 +58395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>54</v>
       </c>
@@ -58459,7 +58460,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -58524,7 +58525,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
@@ -58589,7 +58590,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
@@ -58654,7 +58655,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -58713,7 +58714,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -58752,12 +58753,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -58794,7 +58795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -58859,7 +58860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -58924,7 +58925,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -58989,7 +58990,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -59054,7 +59055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -59119,7 +59120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -59184,7 +59185,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -59249,7 +59250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -59314,7 +59315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -59379,7 +59380,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -59444,7 +59445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -59509,7 +59510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -59574,7 +59575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -59639,7 +59640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
@@ -59704,7 +59705,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
@@ -59769,7 +59770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -59834,7 +59835,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
@@ -59899,7 +59900,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -59964,7 +59965,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -60029,7 +60030,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -60094,7 +60095,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -60159,7 +60160,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
@@ -60224,7 +60225,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -60289,7 +60290,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
@@ -60354,7 +60355,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
@@ -60419,7 +60420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -60484,7 +60485,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -60549,7 +60550,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>55</v>
       </c>
@@ -60614,7 +60615,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -60679,7 +60680,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
@@ -60744,7 +60745,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>55</v>
       </c>
@@ -60809,7 +60810,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>55</v>
       </c>
@@ -60874,7 +60875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -60947,6 +60948,76 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35912</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35912</Url>
+      <Description>H7Q62YT2XCZT-908671883-35912</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -61253,76 +61324,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35912</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35912</Url>
-      <Description>H7Q62YT2XCZT-908671883-35912</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -61333,17 +61334,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3610E81-619C-47DD-8A98-B1F50DF70862}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD50505-CD0C-485D-A514-C7C9B75BA17C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD50505-CD0C-485D-A514-C7C9B75BA17C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3610E81-619C-47DD-8A98-B1F50DF70862}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>